--- a/natmiOut/OldD2/LR-pairs_lrc2p/Icam5-Itgal.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Icam5-Itgal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgal</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.62020760492599</v>
+        <v>1.903662</v>
       </c>
       <c r="H2">
-        <v>1.62020760492599</v>
+        <v>3.807324</v>
       </c>
       <c r="I2">
-        <v>0.4123891429444392</v>
+        <v>0.4013069244481473</v>
       </c>
       <c r="J2">
-        <v>0.4123891429444392</v>
+        <v>0.3088528831846959</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.183886783266226</v>
+        <v>0.201234</v>
       </c>
       <c r="N2">
-        <v>0.183886783266226</v>
+        <v>0.402468</v>
       </c>
       <c r="O2">
-        <v>0.00500922091510655</v>
+        <v>0.004466895590915998</v>
       </c>
       <c r="P2">
-        <v>0.00500922091510655</v>
+        <v>0.002986564688658119</v>
       </c>
       <c r="Q2">
-        <v>0.2979347646933166</v>
+        <v>0.383081518908</v>
       </c>
       <c r="R2">
-        <v>0.2979347646933166</v>
+        <v>1.532326075632</v>
       </c>
       <c r="S2">
-        <v>0.00206574832000015</v>
+        <v>0.001792596131421488</v>
       </c>
       <c r="T2">
-        <v>0.00206574832000015</v>
+        <v>0.0009224091149096638</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.62020760492599</v>
+        <v>1.903662</v>
       </c>
       <c r="H3">
-        <v>1.62020760492599</v>
+        <v>3.807324</v>
       </c>
       <c r="I3">
-        <v>0.4123891429444392</v>
+        <v>0.4013069244481473</v>
       </c>
       <c r="J3">
-        <v>0.4123891429444392</v>
+        <v>0.3088528831846959</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>11.1245070730189</v>
+        <v>0.048421</v>
       </c>
       <c r="N3">
-        <v>11.1245070730189</v>
+        <v>0.145263</v>
       </c>
       <c r="O3">
-        <v>0.303040340967517</v>
+        <v>0.00107482608012435</v>
       </c>
       <c r="P3">
-        <v>0.303040340967517</v>
+        <v>0.001077942460937377</v>
       </c>
       <c r="Q3">
-        <v>18.02401096075819</v>
+        <v>0.09217721770200001</v>
       </c>
       <c r="R3">
-        <v>18.02401096075819</v>
+        <v>0.5530633062120001</v>
       </c>
       <c r="S3">
-        <v>0.124970546489185</v>
+        <v>0.000431335148531361</v>
       </c>
       <c r="T3">
-        <v>0.124970546489185</v>
+        <v>0.0003329256369677154</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.62020760492599</v>
+        <v>1.903662</v>
       </c>
       <c r="H4">
-        <v>1.62020760492599</v>
+        <v>3.807324</v>
       </c>
       <c r="I4">
-        <v>0.4123891429444392</v>
+        <v>0.4013069244481473</v>
       </c>
       <c r="J4">
-        <v>0.4123891429444392</v>
+        <v>0.3088528831846959</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.2176634538606</v>
+        <v>19.00592</v>
       </c>
       <c r="N4">
-        <v>25.2176634538606</v>
+        <v>57.01776</v>
       </c>
       <c r="O4">
-        <v>0.6869490289593727</v>
+        <v>0.4218842752681067</v>
       </c>
       <c r="P4">
-        <v>0.6869490289593727</v>
+        <v>0.4231074983411932</v>
       </c>
       <c r="Q4">
-        <v>40.85785010640915</v>
+        <v>36.18084767904001</v>
       </c>
       <c r="R4">
-        <v>40.85785010640915</v>
+        <v>217.08508607424</v>
       </c>
       <c r="S4">
-        <v>0.2832903212990705</v>
+        <v>0.1693050809808795</v>
       </c>
       <c r="T4">
-        <v>0.2832903212990705</v>
+        <v>0.1306779707597415</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.62020760492599</v>
+        <v>1.903662</v>
       </c>
       <c r="H5">
-        <v>1.62020760492599</v>
+        <v>3.807324</v>
       </c>
       <c r="I5">
-        <v>0.4123891429444392</v>
+        <v>0.4013069244481473</v>
       </c>
       <c r="J5">
-        <v>0.4123891429444392</v>
+        <v>0.3088528831846959</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.183600016339869</v>
+        <v>25.443508</v>
       </c>
       <c r="N5">
-        <v>0.183600016339869</v>
+        <v>76.330524</v>
       </c>
       <c r="O5">
-        <v>0.005001409158003873</v>
+        <v>0.5647827588908232</v>
       </c>
       <c r="P5">
-        <v>0.005001409158003873</v>
+        <v>0.5664203058259815</v>
       </c>
       <c r="Q5">
-        <v>0.2974701427383918</v>
+        <v>48.435839326296</v>
       </c>
       <c r="R5">
-        <v>0.2974701427383918</v>
+        <v>290.615035957776</v>
       </c>
       <c r="S5">
-        <v>0.002062526836183687</v>
+        <v>0.2266512319518157</v>
       </c>
       <c r="T5">
-        <v>0.002062526836183687</v>
+        <v>0.1749405445487116</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.601691579475833</v>
+        <v>1.903662</v>
       </c>
       <c r="H6">
-        <v>0.601691579475833</v>
+        <v>3.807324</v>
       </c>
       <c r="I6">
-        <v>0.1531477040488643</v>
+        <v>0.4013069244481473</v>
       </c>
       <c r="J6">
-        <v>0.1531477040488643</v>
+        <v>0.3088528831846959</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.183886783266226</v>
+        <v>0.1615046666666667</v>
       </c>
       <c r="N6">
-        <v>0.183886783266226</v>
+        <v>0.484514</v>
       </c>
       <c r="O6">
-        <v>0.00500922091510655</v>
+        <v>0.003585002949032923</v>
       </c>
       <c r="P6">
-        <v>0.00500922091510655</v>
+        <v>0.003595397406900673</v>
       </c>
       <c r="Q6">
-        <v>0.1106431290681857</v>
+        <v>0.307450296756</v>
       </c>
       <c r="R6">
-        <v>0.1106431290681857</v>
+        <v>1.844701780536</v>
       </c>
       <c r="S6">
-        <v>0.0007671506822221189</v>
+        <v>0.00143868650761394</v>
       </c>
       <c r="T6">
-        <v>0.0007671506822221189</v>
+        <v>0.001110448855316052</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.601691579475833</v>
+        <v>1.903662</v>
       </c>
       <c r="H7">
-        <v>0.601691579475833</v>
+        <v>3.807324</v>
       </c>
       <c r="I7">
-        <v>0.1531477040488643</v>
+        <v>0.4013069244481473</v>
       </c>
       <c r="J7">
-        <v>0.1531477040488643</v>
+        <v>0.3088528831846959</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.1245070730189</v>
+        <v>0.1894915</v>
       </c>
       <c r="N7">
-        <v>11.1245070730189</v>
+        <v>0.378983</v>
       </c>
       <c r="O7">
-        <v>0.303040340967517</v>
+        <v>0.004206241220996745</v>
       </c>
       <c r="P7">
-        <v>0.303040340967517</v>
+        <v>0.002812291276329348</v>
       </c>
       <c r="Q7">
-        <v>6.693522231654818</v>
+        <v>0.360727767873</v>
       </c>
       <c r="R7">
-        <v>6.693522231654818</v>
+        <v>1.442911071492</v>
       </c>
       <c r="S7">
-        <v>0.04640993245336021</v>
+        <v>0.001687993727885223</v>
       </c>
       <c r="T7">
-        <v>0.04640993245336021</v>
+        <v>0.0008685842690494875</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.601691579475833</v>
+        <v>0.67028</v>
       </c>
       <c r="H8">
-        <v>0.601691579475833</v>
+        <v>2.01084</v>
       </c>
       <c r="I8">
-        <v>0.1531477040488643</v>
+        <v>0.1413002966488295</v>
       </c>
       <c r="J8">
-        <v>0.1531477040488643</v>
+        <v>0.1631207986562514</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.2176634538606</v>
+        <v>0.201234</v>
       </c>
       <c r="N8">
-        <v>25.2176634538606</v>
+        <v>0.402468</v>
       </c>
       <c r="O8">
-        <v>0.6869490289593727</v>
+        <v>0.004466895590915998</v>
       </c>
       <c r="P8">
-        <v>0.6869490289593727</v>
+        <v>0.002986564688658119</v>
       </c>
       <c r="Q8">
-        <v>15.17325575424337</v>
+        <v>0.13488312552</v>
       </c>
       <c r="R8">
-        <v>15.17325575424337</v>
+        <v>0.80929875312</v>
       </c>
       <c r="S8">
-        <v>0.1052046665837247</v>
+        <v>0.0006311736720957791</v>
       </c>
       <c r="T8">
-        <v>0.1052046665837247</v>
+        <v>0.0004871708172524713</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,557 +962,1425 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.601691579475833</v>
+        <v>0.67028</v>
       </c>
       <c r="H9">
-        <v>0.601691579475833</v>
+        <v>2.01084</v>
       </c>
       <c r="I9">
-        <v>0.1531477040488643</v>
+        <v>0.1413002966488295</v>
       </c>
       <c r="J9">
-        <v>0.1531477040488643</v>
+        <v>0.1631207986562514</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.183600016339869</v>
+        <v>0.048421</v>
       </c>
       <c r="N9">
-        <v>0.183600016339869</v>
+        <v>0.145263</v>
       </c>
       <c r="O9">
-        <v>0.005001409158003873</v>
+        <v>0.00107482608012435</v>
       </c>
       <c r="P9">
-        <v>0.005001409158003873</v>
+        <v>0.001077942460937377</v>
       </c>
       <c r="Q9">
-        <v>0.1104705838233245</v>
+        <v>0.03245562788</v>
       </c>
       <c r="R9">
-        <v>0.1104705838233245</v>
+        <v>0.29210065092</v>
       </c>
       <c r="S9">
-        <v>0.0007659543295572566</v>
+        <v>0.0001518732439674693</v>
       </c>
       <c r="T9">
-        <v>0.0007659543295572566</v>
+        <v>0.0001758348351335901</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.825847418246979</v>
+        <v>0.67028</v>
       </c>
       <c r="H10">
-        <v>0.825847418246979</v>
+        <v>2.01084</v>
       </c>
       <c r="I10">
-        <v>0.2102017716608031</v>
+        <v>0.1413002966488295</v>
       </c>
       <c r="J10">
-        <v>0.2102017716608031</v>
+        <v>0.1631207986562514</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.183886783266226</v>
+        <v>19.00592</v>
       </c>
       <c r="N10">
-        <v>0.183886783266226</v>
+        <v>57.01776</v>
       </c>
       <c r="O10">
-        <v>0.00500922091510655</v>
+        <v>0.4218842752681067</v>
       </c>
       <c r="P10">
-        <v>0.00500922091510655</v>
+        <v>0.4231074983411932</v>
       </c>
       <c r="Q10">
-        <v>0.1518624252101545</v>
+        <v>12.7392880576</v>
       </c>
       <c r="R10">
-        <v>0.1518624252101545</v>
+        <v>114.6535925184</v>
       </c>
       <c r="S10">
-        <v>0.001052947110995746</v>
+        <v>0.05961237324685992</v>
       </c>
       <c r="T10">
-        <v>0.001052947110995746</v>
+        <v>0.06901763304686401</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.825847418246979</v>
+        <v>0.67028</v>
       </c>
       <c r="H11">
-        <v>0.825847418246979</v>
+        <v>2.01084</v>
       </c>
       <c r="I11">
-        <v>0.2102017716608031</v>
+        <v>0.1413002966488295</v>
       </c>
       <c r="J11">
-        <v>0.2102017716608031</v>
+        <v>0.1631207986562514</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.1245070730189</v>
+        <v>25.443508</v>
       </c>
       <c r="N11">
-        <v>11.1245070730189</v>
+        <v>76.330524</v>
       </c>
       <c r="O11">
-        <v>0.303040340967517</v>
+        <v>0.5647827588908232</v>
       </c>
       <c r="P11">
-        <v>0.303040340967517</v>
+        <v>0.5664203058259815</v>
       </c>
       <c r="Q11">
-        <v>9.187145445522917</v>
+        <v>17.05427454224</v>
       </c>
       <c r="R11">
-        <v>9.187145445522917</v>
+        <v>153.48847088016</v>
       </c>
       <c r="S11">
-        <v>0.0636996165560659</v>
+        <v>0.07980397137341767</v>
       </c>
       <c r="T11">
-        <v>0.0636996165560659</v>
+        <v>0.09239493266145228</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.825847418246979</v>
+        <v>0.67028</v>
       </c>
       <c r="H12">
-        <v>0.825847418246979</v>
+        <v>2.01084</v>
       </c>
       <c r="I12">
-        <v>0.2102017716608031</v>
+        <v>0.1413002966488295</v>
       </c>
       <c r="J12">
-        <v>0.2102017716608031</v>
+        <v>0.1631207986562514</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>25.2176634538606</v>
+        <v>0.1615046666666667</v>
       </c>
       <c r="N12">
-        <v>25.2176634538606</v>
+        <v>0.484514</v>
       </c>
       <c r="O12">
-        <v>0.6869490289593727</v>
+        <v>0.003585002949032923</v>
       </c>
       <c r="P12">
-        <v>0.6869490289593727</v>
+        <v>0.003595397406900673</v>
       </c>
       <c r="Q12">
-        <v>20.82594225759197</v>
+        <v>0.1082533479733333</v>
       </c>
       <c r="R12">
-        <v>20.82594225759197</v>
+        <v>0.9742801317599999</v>
       </c>
       <c r="S12">
-        <v>0.1443979029279285</v>
+        <v>0.0005065619801852806</v>
       </c>
       <c r="T12">
-        <v>0.1443979029279285</v>
+        <v>0.0005864840965002531</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.825847418246979</v>
+        <v>0.67028</v>
       </c>
       <c r="H13">
-        <v>0.825847418246979</v>
+        <v>2.01084</v>
       </c>
       <c r="I13">
-        <v>0.2102017716608031</v>
+        <v>0.1413002966488295</v>
       </c>
       <c r="J13">
-        <v>0.2102017716608031</v>
+        <v>0.1631207986562514</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.183600016339869</v>
+        <v>0.1894915</v>
       </c>
       <c r="N13">
-        <v>0.183600016339869</v>
+        <v>0.378983</v>
       </c>
       <c r="O13">
-        <v>0.005001409158003873</v>
+        <v>0.004206241220996745</v>
       </c>
       <c r="P13">
-        <v>0.005001409158003873</v>
+        <v>0.002812291276329348</v>
       </c>
       <c r="Q13">
-        <v>0.151625599484384</v>
+        <v>0.12701236262</v>
       </c>
       <c r="R13">
-        <v>0.151625599484384</v>
+        <v>0.76207417572</v>
       </c>
       <c r="S13">
-        <v>0.001051305065812979</v>
+        <v>0.0005943431323033749</v>
       </c>
       <c r="T13">
-        <v>0.001051305065812979</v>
+        <v>0.0004587431990488519</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.881085260764922</v>
+        <v>0.392014</v>
       </c>
       <c r="H14">
-        <v>0.881085260764922</v>
+        <v>1.176042</v>
       </c>
       <c r="I14">
-        <v>0.2242613813458934</v>
+        <v>0.08263963491450477</v>
       </c>
       <c r="J14">
-        <v>0.2242613813458934</v>
+        <v>0.0954013796688425</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.183886783266226</v>
+        <v>0.201234</v>
       </c>
       <c r="N14">
-        <v>0.183886783266226</v>
+        <v>0.402468</v>
       </c>
       <c r="O14">
-        <v>0.00500922091510655</v>
+        <v>0.004466895590915998</v>
       </c>
       <c r="P14">
-        <v>0.00500922091510655</v>
+        <v>0.002986564688658119</v>
       </c>
       <c r="Q14">
-        <v>0.1620199343853454</v>
+        <v>0.078886545276</v>
       </c>
       <c r="R14">
-        <v>0.1620199343853454</v>
+        <v>0.473319271656</v>
       </c>
       <c r="S14">
-        <v>0.001123374801888535</v>
+        <v>0.0003691426208345091</v>
       </c>
       <c r="T14">
-        <v>0.001123374801888535</v>
+        <v>0.0002849223917682316</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.881085260764922</v>
+        <v>0.392014</v>
       </c>
       <c r="H15">
-        <v>0.881085260764922</v>
+        <v>1.176042</v>
       </c>
       <c r="I15">
-        <v>0.2242613813458934</v>
+        <v>0.08263963491450477</v>
       </c>
       <c r="J15">
-        <v>0.2242613813458934</v>
+        <v>0.0954013796688425</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>11.1245070730189</v>
+        <v>0.048421</v>
       </c>
       <c r="N15">
-        <v>11.1245070730189</v>
+        <v>0.145263</v>
       </c>
       <c r="O15">
-        <v>0.303040340967517</v>
+        <v>0.00107482608012435</v>
       </c>
       <c r="P15">
-        <v>0.303040340967517</v>
+        <v>0.001077942460937377</v>
       </c>
       <c r="Q15">
-        <v>9.801639215312077</v>
+        <v>0.018981709894</v>
       </c>
       <c r="R15">
-        <v>9.801639215312077</v>
+        <v>0.170835389046</v>
       </c>
       <c r="S15">
-        <v>0.06796024546890587</v>
+        <v>8.882323485806457E-05</v>
       </c>
       <c r="T15">
-        <v>0.06796024546890587</v>
+        <v>0.0001028371979770532</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.881085260764922</v>
+        <v>0.392014</v>
       </c>
       <c r="H16">
-        <v>0.881085260764922</v>
+        <v>1.176042</v>
       </c>
       <c r="I16">
-        <v>0.2242613813458934</v>
+        <v>0.08263963491450477</v>
       </c>
       <c r="J16">
-        <v>0.2242613813458934</v>
+        <v>0.0954013796688425</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.2176634538606</v>
+        <v>19.00592</v>
       </c>
       <c r="N16">
-        <v>25.2176634538606</v>
+        <v>57.01776</v>
       </c>
       <c r="O16">
-        <v>0.6869490289593727</v>
+        <v>0.4218842752681067</v>
       </c>
       <c r="P16">
-        <v>0.6869490289593727</v>
+        <v>0.4231074983411932</v>
       </c>
       <c r="Q16">
-        <v>22.21891158012681</v>
+        <v>7.450586722880001</v>
       </c>
       <c r="R16">
-        <v>22.21891158012681</v>
+        <v>67.05528050592</v>
       </c>
       <c r="S16">
-        <v>0.154056138148649</v>
+        <v>0.03486436248432677</v>
       </c>
       <c r="T16">
-        <v>0.154056138148649</v>
+        <v>0.04036503908998233</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.392014</v>
+      </c>
+      <c r="H17">
+        <v>1.176042</v>
+      </c>
+      <c r="I17">
+        <v>0.08263963491450477</v>
+      </c>
+      <c r="J17">
+        <v>0.0954013796688425</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>25.443508</v>
+      </c>
+      <c r="N17">
+        <v>76.330524</v>
+      </c>
+      <c r="O17">
+        <v>0.5647827588908232</v>
+      </c>
+      <c r="P17">
+        <v>0.5664203058259815</v>
+      </c>
+      <c r="Q17">
+        <v>9.974211345112</v>
+      </c>
+      <c r="R17">
+        <v>89.76790210600799</v>
+      </c>
+      <c r="S17">
+        <v>0.0466734410007444</v>
+      </c>
+      <c r="T17">
+        <v>0.05403727864824634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.392014</v>
+      </c>
+      <c r="H18">
+        <v>1.176042</v>
+      </c>
+      <c r="I18">
+        <v>0.08263963491450477</v>
+      </c>
+      <c r="J18">
+        <v>0.0954013796688425</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1615046666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.484514</v>
+      </c>
+      <c r="O18">
+        <v>0.003585002949032923</v>
+      </c>
+      <c r="P18">
+        <v>0.003595397406900673</v>
+      </c>
+      <c r="Q18">
+        <v>0.06331209039866667</v>
+      </c>
+      <c r="R18">
+        <v>0.5698088135880001</v>
+      </c>
+      <c r="S18">
+        <v>0.0002962633348755037</v>
+      </c>
+      <c r="T18">
+        <v>0.0003430058730761029</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.881085260764922</v>
-      </c>
-      <c r="H17">
-        <v>0.881085260764922</v>
-      </c>
-      <c r="I17">
-        <v>0.2242613813458934</v>
-      </c>
-      <c r="J17">
-        <v>0.2242613813458934</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.183600016339869</v>
-      </c>
-      <c r="N17">
-        <v>0.183600016339869</v>
-      </c>
-      <c r="O17">
-        <v>0.005001409158003873</v>
-      </c>
-      <c r="P17">
-        <v>0.005001409158003873</v>
-      </c>
-      <c r="Q17">
-        <v>0.1617672682732574</v>
-      </c>
-      <c r="R17">
-        <v>0.1617672682732574</v>
-      </c>
-      <c r="S17">
-        <v>0.00112162292644995</v>
-      </c>
-      <c r="T17">
-        <v>0.00112162292644995</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.392014</v>
+      </c>
+      <c r="H19">
+        <v>1.176042</v>
+      </c>
+      <c r="I19">
+        <v>0.08263963491450477</v>
+      </c>
+      <c r="J19">
+        <v>0.0954013796688425</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.1894915</v>
+      </c>
+      <c r="N19">
+        <v>0.378983</v>
+      </c>
+      <c r="O19">
+        <v>0.004206241220996745</v>
+      </c>
+      <c r="P19">
+        <v>0.002812291276329348</v>
+      </c>
+      <c r="Q19">
+        <v>0.07428332088100001</v>
+      </c>
+      <c r="R19">
+        <v>0.4456999252860001</v>
+      </c>
+      <c r="S19">
+        <v>0.0003476022388655118</v>
+      </c>
+      <c r="T19">
+        <v>0.0002682964677924698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.8668149999999999</v>
+      </c>
+      <c r="H20">
+        <v>2.600445</v>
+      </c>
+      <c r="I20">
+        <v>0.1827314206595082</v>
+      </c>
+      <c r="J20">
+        <v>0.2109499837190705</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.201234</v>
+      </c>
+      <c r="N20">
+        <v>0.402468</v>
+      </c>
+      <c r="O20">
+        <v>0.004466895590915998</v>
+      </c>
+      <c r="P20">
+        <v>0.002986564688658119</v>
+      </c>
+      <c r="Q20">
+        <v>0.17443264971</v>
+      </c>
+      <c r="R20">
+        <v>1.04659589826</v>
+      </c>
+      <c r="S20">
+        <v>0.0008162421772657736</v>
+      </c>
+      <c r="T20">
+        <v>0.0006300157724483811</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8668149999999999</v>
+      </c>
+      <c r="H21">
+        <v>2.600445</v>
+      </c>
+      <c r="I21">
+        <v>0.1827314206595082</v>
+      </c>
+      <c r="J21">
+        <v>0.2109499837190705</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.048421</v>
+      </c>
+      <c r="N21">
+        <v>0.145263</v>
+      </c>
+      <c r="O21">
+        <v>0.00107482608012435</v>
+      </c>
+      <c r="P21">
+        <v>0.001077942460937377</v>
+      </c>
+      <c r="Q21">
+        <v>0.04197204911499999</v>
+      </c>
+      <c r="R21">
+        <v>0.377748442035</v>
+      </c>
+      <c r="S21">
+        <v>0.0001964044965830129</v>
+      </c>
+      <c r="T21">
+        <v>0.0002273919445848345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.8668149999999999</v>
+      </c>
+      <c r="H22">
+        <v>2.600445</v>
+      </c>
+      <c r="I22">
+        <v>0.1827314206595082</v>
+      </c>
+      <c r="J22">
+        <v>0.2109499837190705</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>19.00592</v>
+      </c>
+      <c r="N22">
+        <v>57.01776</v>
+      </c>
+      <c r="O22">
+        <v>0.4218842752681067</v>
+      </c>
+      <c r="P22">
+        <v>0.4231074983411932</v>
+      </c>
+      <c r="Q22">
+        <v>16.4746165448</v>
+      </c>
+      <c r="R22">
+        <v>148.2715489032</v>
+      </c>
+      <c r="S22">
+        <v>0.07709151297364815</v>
+      </c>
+      <c r="T22">
+        <v>0.08925451988649136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.8668149999999999</v>
+      </c>
+      <c r="H23">
+        <v>2.600445</v>
+      </c>
+      <c r="I23">
+        <v>0.1827314206595082</v>
+      </c>
+      <c r="J23">
+        <v>0.2109499837190705</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>25.443508</v>
+      </c>
+      <c r="N23">
+        <v>76.330524</v>
+      </c>
+      <c r="O23">
+        <v>0.5647827588908232</v>
+      </c>
+      <c r="P23">
+        <v>0.5664203058259815</v>
+      </c>
+      <c r="Q23">
+        <v>22.05481438702</v>
+      </c>
+      <c r="R23">
+        <v>198.49332948318</v>
+      </c>
+      <c r="S23">
+        <v>0.1032035558961166</v>
+      </c>
+      <c r="T23">
+        <v>0.1194863542921417</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.8668149999999999</v>
+      </c>
+      <c r="H24">
+        <v>2.600445</v>
+      </c>
+      <c r="I24">
+        <v>0.1827314206595082</v>
+      </c>
+      <c r="J24">
+        <v>0.2109499837190705</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.1615046666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.484514</v>
+      </c>
+      <c r="O24">
+        <v>0.003585002949032923</v>
+      </c>
+      <c r="P24">
+        <v>0.003595397406900673</v>
+      </c>
+      <c r="Q24">
+        <v>0.1399946676366667</v>
+      </c>
+      <c r="R24">
+        <v>1.25995200873</v>
+      </c>
+      <c r="S24">
+        <v>0.0006550926819453124</v>
+      </c>
+      <c r="T24">
+        <v>0.0007584490244492852</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8668149999999999</v>
+      </c>
+      <c r="H25">
+        <v>2.600445</v>
+      </c>
+      <c r="I25">
+        <v>0.1827314206595082</v>
+      </c>
+      <c r="J25">
+        <v>0.2109499837190705</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.1894915</v>
+      </c>
+      <c r="N25">
+        <v>0.378983</v>
+      </c>
+      <c r="O25">
+        <v>0.004206241220996745</v>
+      </c>
+      <c r="P25">
+        <v>0.002812291276329348</v>
+      </c>
+      <c r="Q25">
+        <v>0.1642540745725</v>
+      </c>
+      <c r="R25">
+        <v>0.9855244474349999</v>
+      </c>
+      <c r="S25">
+        <v>0.0007686124339493194</v>
+      </c>
+      <c r="T25">
+        <v>0.00059325279895496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.9108849999999999</v>
+      </c>
+      <c r="H26">
+        <v>2.732655</v>
+      </c>
+      <c r="I26">
+        <v>0.1920217233290104</v>
+      </c>
+      <c r="J26">
+        <v>0.2216749547711398</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.201234</v>
+      </c>
+      <c r="N26">
+        <v>0.402468</v>
+      </c>
+      <c r="O26">
+        <v>0.004466895590915998</v>
+      </c>
+      <c r="P26">
+        <v>0.002986564688658119</v>
+      </c>
+      <c r="Q26">
+        <v>0.18330103209</v>
+      </c>
+      <c r="R26">
+        <v>1.09980619254</v>
+      </c>
+      <c r="S26">
+        <v>0.000857740989298448</v>
+      </c>
+      <c r="T26">
+        <v>0.0006620465922793718</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.9108849999999999</v>
+      </c>
+      <c r="H27">
+        <v>2.732655</v>
+      </c>
+      <c r="I27">
+        <v>0.1920217233290104</v>
+      </c>
+      <c r="J27">
+        <v>0.2216749547711398</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.048421</v>
+      </c>
+      <c r="N27">
+        <v>0.145263</v>
+      </c>
+      <c r="O27">
+        <v>0.00107482608012435</v>
+      </c>
+      <c r="P27">
+        <v>0.001077942460937377</v>
+      </c>
+      <c r="Q27">
+        <v>0.044105962585</v>
+      </c>
+      <c r="R27">
+        <v>0.396953663265</v>
+      </c>
+      <c r="S27">
+        <v>0.0002063899561844428</v>
+      </c>
+      <c r="T27">
+        <v>0.0002389528462741843</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.9108849999999999</v>
+      </c>
+      <c r="H28">
+        <v>2.732655</v>
+      </c>
+      <c r="I28">
+        <v>0.1920217233290104</v>
+      </c>
+      <c r="J28">
+        <v>0.2216749547711398</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>19.00592</v>
+      </c>
+      <c r="N28">
+        <v>57.01776</v>
+      </c>
+      <c r="O28">
+        <v>0.4218842752681067</v>
+      </c>
+      <c r="P28">
+        <v>0.4231074983411932</v>
+      </c>
+      <c r="Q28">
+        <v>17.3122074392</v>
+      </c>
+      <c r="R28">
+        <v>155.8098669528</v>
+      </c>
+      <c r="S28">
+        <v>0.08101094558239244</v>
+      </c>
+      <c r="T28">
+        <v>0.09379233555811411</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.9108849999999999</v>
+      </c>
+      <c r="H29">
+        <v>2.732655</v>
+      </c>
+      <c r="I29">
+        <v>0.1920217233290104</v>
+      </c>
+      <c r="J29">
+        <v>0.2216749547711398</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>25.443508</v>
+      </c>
+      <c r="N29">
+        <v>76.330524</v>
+      </c>
+      <c r="O29">
+        <v>0.5647827588908232</v>
+      </c>
+      <c r="P29">
+        <v>0.5664203058259815</v>
+      </c>
+      <c r="Q29">
+        <v>23.17610978458</v>
+      </c>
+      <c r="R29">
+        <v>208.58498806122</v>
+      </c>
+      <c r="S29">
+        <v>0.1084505586687288</v>
+      </c>
+      <c r="T29">
+        <v>0.1255611956754296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.9108849999999999</v>
+      </c>
+      <c r="H30">
+        <v>2.732655</v>
+      </c>
+      <c r="I30">
+        <v>0.1920217233290104</v>
+      </c>
+      <c r="J30">
+        <v>0.2216749547711398</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.1615046666666667</v>
+      </c>
+      <c r="N30">
+        <v>0.484514</v>
+      </c>
+      <c r="O30">
+        <v>0.003585002949032923</v>
+      </c>
+      <c r="P30">
+        <v>0.003595397406900673</v>
+      </c>
+      <c r="Q30">
+        <v>0.1471121782966666</v>
+      </c>
+      <c r="R30">
+        <v>1.32400960467</v>
+      </c>
+      <c r="S30">
+        <v>0.0006883984444128863</v>
+      </c>
+      <c r="T30">
+        <v>0.0007970095575589799</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.9108849999999999</v>
+      </c>
+      <c r="H31">
+        <v>2.732655</v>
+      </c>
+      <c r="I31">
+        <v>0.1920217233290104</v>
+      </c>
+      <c r="J31">
+        <v>0.2216749547711398</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.1894915</v>
+      </c>
+      <c r="N31">
+        <v>0.378983</v>
+      </c>
+      <c r="O31">
+        <v>0.004206241220996745</v>
+      </c>
+      <c r="P31">
+        <v>0.002812291276329348</v>
+      </c>
+      <c r="Q31">
+        <v>0.1726049649775</v>
+      </c>
+      <c r="R31">
+        <v>1.035629789865</v>
+      </c>
+      <c r="S31">
+        <v>0.0008076896879933157</v>
+      </c>
+      <c r="T31">
+        <v>0.0006234145414835792</v>
       </c>
     </row>
   </sheetData>
